--- a/biology/Botanique/Bacillariophycidae/Bacillariophycidae.xlsx
+++ b/biology/Botanique/Bacillariophycidae/Bacillariophycidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bacillariophycidae sont une sous-classe d’algues diatomées de la classe des Bacillariophyceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (13 janv. 2022)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (13 janv. 2022) :
 ordre des Bacillariales Hendey
 ordre des Cocconeidales E.J.Cox
 ordre des Cymbellales D.G.Mann
@@ -524,7 +538,7 @@
 ordre des Rhopalodiales D.G.Mann
 ordre des Surirellales D.G.Mann
 ordre des Thalassiophysales D.G.Mann
-Selon ITIS      (4 février 2018)[3] :
+Selon ITIS      (4 février 2018) :
 genre Chelonicola Majewska, De Stefano &amp; Van de Vijver
 genre Poulinea Majewska, De Stefano &amp; Van de Vijver
 ordre des Achnanthales Silva
@@ -538,7 +552,7 @@
 ordre des Rhopalodiales Mann
 ordre des Surirellales Mann
 ordre des Thalassiophysales Mann
-Selon World Register of Marine Species                               (4 février 2018)[4] :
+Selon World Register of Marine Species                               (4 février 2018) :
 super-ordre des Bacillariophycanae
 ordre des Achnanthales
 ordre des Bacillariales
